--- a/TestMNIST/MatlabCodes/weight_3.xlsx
+++ b/TestMNIST/MatlabCodes/weight_3.xlsx
@@ -401,616 +401,3032 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CV2"/>
+  <dimension ref="A1:CV10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:CV2"/>
+      <selection sqref="A1:CV10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0.38818721058033906</v>
+        <v>-1.4726369688599368</v>
       </c>
       <c r="B1">
-        <v>0.1013501901178018</v>
+        <v>-0.96473439909565128</v>
       </c>
       <c r="C1">
-        <v>0.32861572089230101</v>
+        <v>-1.443283068855745</v>
       </c>
       <c r="D1">
-        <v>0.49626093244973241</v>
+        <v>-1.1554131267665491</v>
       </c>
       <c r="E1">
-        <v>0.34635559906381203</v>
+        <v>-1.4210433690742421</v>
       </c>
       <c r="F1">
-        <v>0.95201605533105904</v>
+        <v>-1.4361018966686536</v>
       </c>
       <c r="G1">
-        <v>0.38957039653630499</v>
+        <v>-1.5863054594606256</v>
       </c>
       <c r="H1">
-        <v>0.8525389193226407</v>
+        <v>-0.68390301083152005</v>
       </c>
       <c r="I1">
-        <v>0.9019866886915513</v>
+        <v>-0.79573873217789948</v>
       </c>
       <c r="J1">
-        <v>0.94494103902768356</v>
+        <v>-0.77222653315078549</v>
       </c>
       <c r="K1">
-        <v>0.44175874230524503</v>
+        <v>-0.77255592943881268</v>
       </c>
       <c r="L1">
-        <v>0.66285269058331597</v>
+        <v>-0.83713504500663793</v>
       </c>
       <c r="M1">
-        <v>0.31253067628083131</v>
+        <v>-1.4457255947733167</v>
       </c>
       <c r="N1">
-        <v>0.84728013050036877</v>
+        <v>-1.0116913893958843</v>
       </c>
       <c r="O1">
-        <v>0.78704990244204553</v>
+        <v>-0.62867486427336761</v>
       </c>
       <c r="P1">
-        <v>0.11075503327091017</v>
+        <v>-1.3390040404215571</v>
       </c>
       <c r="Q1">
-        <v>0.71673441046697739</v>
+        <v>-1.4003687140580041</v>
       </c>
       <c r="R1">
-        <v>0.94260974960843569</v>
+        <v>-1.0202326024858155</v>
       </c>
       <c r="S1">
-        <v>0.24070554661257404</v>
+        <v>-1.2200523803709515</v>
       </c>
       <c r="T1">
-        <v>0.65975362699881324</v>
+        <v>-0.97729414506334766</v>
       </c>
       <c r="U1">
-        <v>0.80076761173507727</v>
+        <v>-0.99455431245657611</v>
       </c>
       <c r="V1">
-        <v>2.9463848963457391E-2</v>
+        <v>-1.5888997621869847</v>
       </c>
       <c r="W1">
-        <v>0.29340828880555664</v>
+        <v>-1.5399754029878603</v>
       </c>
       <c r="X1">
-        <v>0.88906776916532759</v>
+        <v>-0.9869158903729548</v>
       </c>
       <c r="Y1">
-        <v>0.87843653427679558</v>
+        <v>-0.76768437856021399</v>
       </c>
       <c r="Z1">
-        <v>0.79961052855181103</v>
+        <v>-0.83728291960745926</v>
       </c>
       <c r="AA1">
-        <v>0.6049297951848146</v>
+        <v>-1.4878421072367847</v>
       </c>
       <c r="AB1">
-        <v>0.33401231546867038</v>
+        <v>-1.4850931249684018</v>
       </c>
       <c r="AC1">
-        <v>0.68039501162005445</v>
+        <v>-1.3994089435134858</v>
       </c>
       <c r="AD1">
-        <v>0.47295825117473889</v>
+        <v>-1.3424502095459341</v>
       </c>
       <c r="AE1">
-        <v>0.5428785864462482</v>
+        <v>-1.1230014808963291</v>
       </c>
       <c r="AF1">
-        <v>0.65433487603573792</v>
+        <v>-1.0635585044414002</v>
       </c>
       <c r="AG1">
-        <v>0.23456793163017697</v>
+        <v>-1.3994644559102849</v>
       </c>
       <c r="AH1">
-        <v>0.47643125241449363</v>
+        <v>-0.70321131983898622</v>
       </c>
       <c r="AI1">
-        <v>0.747145268620795</v>
+        <v>-1.1449418412369456</v>
       </c>
       <c r="AJ1">
-        <v>0.96555776409980976</v>
+        <v>-1.0383215200584741</v>
       </c>
       <c r="AK1">
-        <v>0.56719903961625528</v>
+        <v>-0.8809212831219303</v>
       </c>
       <c r="AL1">
-        <v>0.25193943755649123</v>
+        <v>-0.60055938856206903</v>
       </c>
       <c r="AM1">
-        <v>0.96323476736999436</v>
+        <v>-0.92869574725720538</v>
       </c>
       <c r="AN1">
-        <v>0.20629043293415825</v>
+        <v>-0.82917877220765401</v>
       </c>
       <c r="AO1">
-        <v>0.36925310493639157</v>
+        <v>-1.0958274605618348</v>
       </c>
       <c r="AP1">
-        <v>0.83365345033331162</v>
+        <v>-1.3638344608601427</v>
       </c>
       <c r="AQ1">
-        <v>0.5454140605450094</v>
+        <v>-0.97634067873451624</v>
       </c>
       <c r="AR1">
-        <v>0.7054144644457877</v>
+        <v>-0.65243614746809875</v>
       </c>
       <c r="AS1">
-        <v>0.87416197566398612</v>
+        <v>-0.68873063803681422</v>
       </c>
       <c r="AT1">
-        <v>8.5147511215492203E-2</v>
+        <v>-1.3240345401227589</v>
       </c>
       <c r="AU1">
-        <v>0.70328372843128539</v>
+        <v>-1.7801666215613199</v>
       </c>
       <c r="AV1">
-        <v>0.12099938950538205</v>
+        <v>-1.0210231494419808</v>
       </c>
       <c r="AW1">
-        <v>0.47285860571233956</v>
+        <v>-1.1433661347028221</v>
       </c>
       <c r="AX1">
-        <v>0.88617915686028159</v>
+        <v>-1.0636212402801821</v>
       </c>
       <c r="AY1">
-        <v>0.60295335995516108</v>
+        <v>-1.1771535447289094</v>
       </c>
       <c r="AZ1">
-        <v>0.56969667191144646</v>
+        <v>-1.0733094180190366</v>
       </c>
       <c r="BA1">
-        <v>0.7441798166427388</v>
+        <v>-1.8101250186463169</v>
       </c>
       <c r="BB1">
-        <v>0.25915693203447787</v>
+        <v>-0.78204606811597299</v>
       </c>
       <c r="BC1">
-        <v>1.3408913471047319E-2</v>
+        <v>-1.3133642154941552</v>
       </c>
       <c r="BD1">
-        <v>0.37721070746090601</v>
+        <v>-1.0807350847949251</v>
       </c>
       <c r="BE1">
-        <v>0.11214336477408626</v>
+        <v>-0.61947995803655598</v>
       </c>
       <c r="BF1">
-        <v>1.4733383829077492E-2</v>
+        <v>-1.0637081030439701</v>
       </c>
       <c r="BG1">
-        <v>2.9652128107729086E-2</v>
+        <v>-0.96514341534337966</v>
       </c>
       <c r="BH1">
-        <v>0.25351581371695381</v>
+        <v>-0.73398652734882641</v>
       </c>
       <c r="BI1">
-        <v>2.5372118578847563E-2</v>
+        <v>-1.2996655021011323</v>
       </c>
       <c r="BJ1">
-        <v>0.1791252158117039</v>
+        <v>-1.0020300528723325</v>
       </c>
       <c r="BK1">
-        <v>7.2249330016925753E-2</v>
+        <v>-1.0219302102292183</v>
       </c>
       <c r="BL1">
-        <v>0.14690300431825454</v>
+        <v>-1.4961727001887783</v>
       </c>
       <c r="BM1">
-        <v>0.7962921215292974</v>
+        <v>-1.5410799592905857</v>
       </c>
       <c r="BN1">
-        <v>0.71436954369201144</v>
+        <v>-1.1231143191776938</v>
       </c>
       <c r="BO1">
-        <v>0.19815745160668663</v>
+        <v>-1.1935623972439469</v>
       </c>
       <c r="BP1">
-        <v>0.90881075576948112</v>
+        <v>-0.77965388412869485</v>
       </c>
       <c r="BQ1">
-        <v>0.68788174072860264</v>
+        <v>-0.96103563070821962</v>
       </c>
       <c r="BR1">
-        <v>0.90791904462477102</v>
+        <v>-0.97123906298144569</v>
       </c>
       <c r="BS1">
-        <v>0.35320867265513445</v>
+        <v>-1.5025696163607662</v>
       </c>
       <c r="BT1">
-        <v>2.6058790537900736E-2</v>
+        <v>-1.6355694578638966</v>
       </c>
       <c r="BU1">
-        <v>6.4373727629862848E-2</v>
+        <v>-1.5208395356183464</v>
       </c>
       <c r="BV1">
-        <v>0.98794928070082644</v>
+        <v>-1.3603939436392967</v>
       </c>
       <c r="BW1">
-        <v>0.68646526588866674</v>
+        <v>-1.4949653417504529</v>
       </c>
       <c r="BX1">
-        <v>0.89751445591692003</v>
+        <v>-1.0523727943080077</v>
       </c>
       <c r="BY1">
-        <v>0.11544094692110336</v>
+        <v>-1.1157408965540994</v>
       </c>
       <c r="BZ1">
-        <v>0.76696150648327421</v>
+        <v>-1.1982942809767534</v>
       </c>
       <c r="CA1">
-        <v>0.48013282019293385</v>
+        <v>-1.2238893948304039</v>
       </c>
       <c r="CB1">
-        <v>0.88107616945849532</v>
+        <v>-1.4103923309131736</v>
       </c>
       <c r="CC1">
-        <v>0.12073215662285629</v>
+        <v>-1.0807734871980381</v>
       </c>
       <c r="CD1">
-        <v>0.17121097098067245</v>
+        <v>-1.5043818822207717</v>
       </c>
       <c r="CE1">
-        <v>0.90900732972808895</v>
+        <v>-1.0883878100478446</v>
       </c>
       <c r="CF1">
-        <v>0.77055115986198774</v>
+        <v>-1.0144912633476912</v>
       </c>
       <c r="CG1">
-        <v>0.34228592199451452</v>
+        <v>-1.1901185759544926</v>
       </c>
       <c r="CH1">
-        <v>0.44461719759185747</v>
+        <v>-1.0647103017018489</v>
       </c>
       <c r="CI1">
-        <v>0.41305059166416425</v>
+        <v>-1.3170324116918062</v>
       </c>
       <c r="CJ1">
-        <v>0.96312584658322453</v>
+        <v>-1.1639277338609939</v>
       </c>
       <c r="CK1">
-        <v>0.83289710920315252</v>
+        <v>-0.77597592480350841</v>
       </c>
       <c r="CL1">
-        <v>0.50892264514183694</v>
+        <v>-1.4060100497712289</v>
       </c>
       <c r="CM1">
-        <v>0.80244314424442564</v>
+        <v>-1.3278797602295502</v>
       </c>
       <c r="CN1">
-        <v>0.54764827888702972</v>
+        <v>-1.4655488723137455</v>
       </c>
       <c r="CO1">
-        <v>0.50141618591904058</v>
+        <v>-0.65984302536517303</v>
       </c>
       <c r="CP1">
-        <v>0.63571522107974754</v>
+        <v>-1.6746082245632403</v>
       </c>
       <c r="CQ1">
-        <v>4.6979793089574409E-2</v>
+        <v>-0.91590436783339635</v>
       </c>
       <c r="CR1">
-        <v>0.29414371219301411</v>
+        <v>-1.3897296829473627</v>
       </c>
       <c r="CS1">
-        <v>0.87797646701485998</v>
+        <v>-1.4388531313857313</v>
       </c>
       <c r="CT1">
-        <v>0.93656778369387239</v>
+        <v>-1.5300837110817365</v>
       </c>
       <c r="CU1">
-        <v>7.6188482554834E-2</v>
+        <v>-1.341103393605757</v>
       </c>
       <c r="CV1">
-        <v>0.13408089336242124</v>
+        <v>-0.80373677962666701</v>
       </c>
     </row>
     <row r="2" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.71429405031091076</v>
+        <v>-1.0570319867899518</v>
       </c>
       <c r="B2">
-        <v>0.32451871264965321</v>
+        <v>-0.82552669234356402</v>
       </c>
       <c r="C2">
-        <v>0.29194542995824907</v>
+        <v>-1.1918624586454813</v>
       </c>
       <c r="D2">
-        <v>0.13113686556441809</v>
+        <v>-1.408219810691802</v>
       </c>
       <c r="E2">
-        <v>0.84552028682137492</v>
+        <v>-1.3022595293425274</v>
       </c>
       <c r="F2">
-        <v>0.64008758648716568</v>
+        <v>-1.5584166478851507</v>
       </c>
       <c r="G2">
-        <v>0.27635388102847191</v>
+        <v>-1.0545828121320235</v>
       </c>
       <c r="H2">
-        <v>0.41797699971530855</v>
+        <v>-1.3585180398752084</v>
       </c>
       <c r="I2">
-        <v>0.6471049960787375</v>
+        <v>-1.1936322686970995</v>
       </c>
       <c r="J2">
-        <v>0.92829299091367445</v>
+        <v>-1.3279412221010689</v>
       </c>
       <c r="K2">
-        <v>0.77926619374390482</v>
+        <v>-0.60972703623190383</v>
       </c>
       <c r="L2">
-        <v>0.98627677243033229</v>
+        <v>-1.2459884046111955</v>
       </c>
       <c r="M2">
-        <v>0.22776484830526669</v>
+        <v>-1.4759418081781883</v>
       </c>
       <c r="N2">
-        <v>0.25028385186442847</v>
+        <v>-1.0537928698665862</v>
       </c>
       <c r="O2">
-        <v>0.10881730101483</v>
+        <v>-1.0991010237780099</v>
       </c>
       <c r="P2">
-        <v>0.96503904963932718</v>
+        <v>-1.0790484424360707</v>
       </c>
       <c r="Q2">
-        <v>0.49946359455950434</v>
+        <v>-0.73445505838636382</v>
       </c>
       <c r="R2">
-        <v>0.47861210375961183</v>
+        <v>-1.1658231356455904</v>
       </c>
       <c r="S2">
-        <v>0.77307700103255395</v>
+        <v>-1.4346336827549455</v>
       </c>
       <c r="T2">
-        <v>0.28437391613318547</v>
+        <v>-1.1904538632788382</v>
       </c>
       <c r="U2">
-        <v>0.24580816138230027</v>
+        <v>-0.9863623112108082</v>
       </c>
       <c r="V2">
-        <v>0.87557663000730512</v>
+        <v>-1.5811640261919051</v>
       </c>
       <c r="W2">
-        <v>0.94011999782458988</v>
+        <v>-0.90527808325635628</v>
       </c>
       <c r="X2">
-        <v>0.33892037666063607</v>
+        <v>-1.5771387464971511</v>
       </c>
       <c r="Y2">
-        <v>0.42665169192744989</v>
+        <v>-0.88650812031702986</v>
       </c>
       <c r="Z2">
-        <v>0.26577946216715703</v>
+        <v>-0.67403245222824926</v>
       </c>
       <c r="AA2">
-        <v>0.10759124894089205</v>
+        <v>-1.296506561627766</v>
       </c>
       <c r="AB2">
-        <v>0.40443864960994963</v>
+        <v>-1.3685634644311646</v>
       </c>
       <c r="AC2">
-        <v>0.4763745742554174</v>
+        <v>-1.0619065785888249</v>
       </c>
       <c r="AD2">
-        <v>4.7254102682938497E-2</v>
+        <v>-0.7120561477762587</v>
       </c>
       <c r="AE2">
-        <v>0.52002262913878217</v>
+        <v>-0.93358118298456683</v>
       </c>
       <c r="AF2">
-        <v>0.71373319439204264</v>
+        <v>-0.74694457318593055</v>
       </c>
       <c r="AG2">
-        <v>0.33531369531285615</v>
+        <v>-0.92505839837853643</v>
       </c>
       <c r="AH2">
-        <v>0.18637012349576976</v>
+        <v>-0.8065141176657612</v>
       </c>
       <c r="AI2">
-        <v>0.98783770587682562</v>
+        <v>-1.3550335916853959</v>
       </c>
       <c r="AJ2">
-        <v>0.22365738489124395</v>
+        <v>-0.98512300084715987</v>
       </c>
       <c r="AK2">
-        <v>0.62897433763138977</v>
+        <v>-1.0341049378889562</v>
       </c>
       <c r="AL2">
-        <v>0.28902475227635582</v>
+        <v>-1.1152997379662148</v>
       </c>
       <c r="AM2">
-        <v>0.13233640490676046</v>
+        <v>-1.2221114675476319</v>
       </c>
       <c r="AN2">
-        <v>0.32463073005024162</v>
+        <v>-1.3213412284890063</v>
       </c>
       <c r="AO2">
-        <v>0.99138222720854063</v>
+        <v>-0.75570934065433559</v>
       </c>
       <c r="AP2">
-        <v>0.7656915436299756</v>
+        <v>-1.544199199961678</v>
       </c>
       <c r="AQ2">
-        <v>0.23978362584705612</v>
+        <v>-1.3192187452746622</v>
       </c>
       <c r="AR2">
-        <v>0.13338421963831398</v>
+        <v>-1.1638789278942872</v>
       </c>
       <c r="AS2">
-        <v>0.1452990644519235</v>
+        <v>-0.70683652429022303</v>
       </c>
       <c r="AT2">
-        <v>0.81853929802694603</v>
+        <v>-1.4889529170247497</v>
       </c>
       <c r="AU2">
-        <v>0.70344342146726824</v>
+        <v>-1.15415663240122</v>
       </c>
       <c r="AV2">
-        <v>0.49752567009018622</v>
+        <v>-1.6352188988845837</v>
       </c>
       <c r="AW2">
-        <v>5.9866366951887226E-2</v>
+        <v>-1.0741723798929124</v>
       </c>
       <c r="AX2">
-        <v>0.16090484305450173</v>
+        <v>-1.1217702917390171</v>
       </c>
       <c r="AY2">
-        <v>0.12730408108640709</v>
+        <v>-1.104775090916811</v>
       </c>
       <c r="AZ2">
-        <v>0.16592151772245797</v>
+        <v>-1.6725050321873662</v>
       </c>
       <c r="BA2">
-        <v>0.30677820052799654</v>
+        <v>-0.94033049389221379</v>
       </c>
       <c r="BB2">
-        <v>0.21846312907639001</v>
+        <v>-0.90715761908555759</v>
       </c>
       <c r="BC2">
-        <v>0.44952561864755036</v>
+        <v>-1.6310470519594897</v>
       </c>
       <c r="BD2">
-        <v>8.3198390202832984E-2</v>
+        <v>-1.2941768369851361</v>
       </c>
       <c r="BE2">
-        <v>0.35719651725757562</v>
+        <v>-0.71007318557790056</v>
       </c>
       <c r="BF2">
-        <v>0.99362646842365521</v>
+        <v>-0.85293831674973353</v>
       </c>
       <c r="BG2">
-        <v>0.53233189268326897</v>
+        <v>-0.83422779495812305</v>
       </c>
       <c r="BH2">
-        <v>0.6433262024116736</v>
+        <v>-0.73815238660249693</v>
       </c>
       <c r="BI2">
-        <v>7.4719586650256728E-2</v>
+        <v>-1.1749061857281313</v>
       </c>
       <c r="BJ2">
-        <v>0.80922225342089893</v>
+        <v>-1.1155757641272421</v>
       </c>
       <c r="BK2">
-        <v>0.60235034494907491</v>
+        <v>-1.7311492216726503</v>
       </c>
       <c r="BL2">
-        <v>0.84640251510182007</v>
+        <v>-0.77360338924454375</v>
       </c>
       <c r="BM2">
-        <v>0.45216733561950984</v>
+        <v>-1.6504086793796657</v>
       </c>
       <c r="BN2">
-        <v>0.47908644477816614</v>
+        <v>-1.4270948169348601</v>
       </c>
       <c r="BO2">
-        <v>7.4399552930595123E-2</v>
+        <v>-1.4502761184189654</v>
       </c>
       <c r="BP2">
-        <v>0.68013694403859837</v>
+        <v>-1.4065533222910185</v>
       </c>
       <c r="BQ2">
-        <v>0.72565084593952978</v>
+        <v>-1.2258172616620824</v>
       </c>
       <c r="BR2">
-        <v>0.81221219148853907</v>
+        <v>-1.3498541934355912</v>
       </c>
       <c r="BS2">
-        <v>0.2994388902699559</v>
+        <v>-0.52702084083451461</v>
       </c>
       <c r="BT2">
-        <v>0.69740229692527644</v>
+        <v>-1.1995787004998588</v>
       </c>
       <c r="BU2">
-        <v>0.18324203574964709</v>
+        <v>-1.3155721686638251</v>
       </c>
       <c r="BV2">
-        <v>0.5007527649613126</v>
+        <v>-1.5447944032191963</v>
       </c>
       <c r="BW2">
-        <v>0.83901338484705412</v>
+        <v>-0.86721369320404706</v>
       </c>
       <c r="BX2">
-        <v>0.48990806521886887</v>
+        <v>-1.1095263202822576</v>
       </c>
       <c r="BY2">
-        <v>0.93319291175355579</v>
+        <v>-0.82024440701685042</v>
       </c>
       <c r="BZ2">
-        <v>0.90345055796638618</v>
+        <v>-0.96094340626574826</v>
       </c>
       <c r="CA2">
-        <v>1.2949686475332926E-2</v>
+        <v>-0.9147335240783131</v>
       </c>
       <c r="CB2">
-        <v>0.50730391666756647</v>
+        <v>-1.2607389843802701</v>
       </c>
       <c r="CC2">
-        <v>0.59150603656905099</v>
+        <v>-1.1457005569293055</v>
       </c>
       <c r="CD2">
-        <v>0.65053380447469356</v>
+        <v>-0.61590689164409773</v>
       </c>
       <c r="CE2">
-        <v>0.30273628348808229</v>
+        <v>-1.1490985693232842</v>
       </c>
       <c r="CF2">
-        <v>0.88315835513916929</v>
+        <v>-0.60156385368045251</v>
       </c>
       <c r="CG2">
-        <v>0.73444687900498273</v>
+        <v>-1.605149461893008</v>
       </c>
       <c r="CH2">
-        <v>0.63517285084631603</v>
+        <v>-0.71956801804472614</v>
       </c>
       <c r="CI2">
-        <v>0.46597355209442082</v>
+        <v>-1.3903863363908611</v>
       </c>
       <c r="CJ2">
-        <v>0.72526447564758245</v>
+        <v>-1.8630656668032712</v>
       </c>
       <c r="CK2">
-        <v>0.93181123646989661</v>
+        <v>-1.3835387463818622</v>
       </c>
       <c r="CL2">
-        <v>0.1004900053635772</v>
+        <v>-0.81524912392749438</v>
       </c>
       <c r="CM2">
-        <v>4.9373550571522144E-3</v>
+        <v>-1.0262662682270296</v>
       </c>
       <c r="CN2">
-        <v>0.87692581198053332</v>
+        <v>-0.60817179514712616</v>
       </c>
       <c r="CO2">
-        <v>0.12885052621349835</v>
+        <v>-1.3432309570281116</v>
       </c>
       <c r="CP2">
-        <v>0.62735287345856439</v>
+        <v>-1.3852361209918151</v>
       </c>
       <c r="CQ2">
-        <v>0.31398353594741529</v>
+        <v>-1.4951452665135334</v>
       </c>
       <c r="CR2">
-        <v>0.35160872716692565</v>
+        <v>-0.8800133820836592</v>
       </c>
       <c r="CS2">
-        <v>0.52277438876703375</v>
+        <v>-1.6475520380686324</v>
       </c>
       <c r="CT2">
-        <v>0.15329369974436327</v>
+        <v>-1.3827906758598256</v>
       </c>
       <c r="CU2">
-        <v>0.24107429685520593</v>
+        <v>-2.0544127900021203</v>
       </c>
       <c r="CV2">
-        <v>0.65911537342169668</v>
+        <v>-1.080169388074472</v>
+      </c>
+    </row>
+    <row r="3" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>-1.4960233643514946</v>
+      </c>
+      <c r="B3">
+        <v>-0.97911468968020465</v>
+      </c>
+      <c r="C3">
+        <v>-1.150171776343933</v>
+      </c>
+      <c r="D3">
+        <v>-0.62375518551655418</v>
+      </c>
+      <c r="E3">
+        <v>-1.2184487711475005</v>
+      </c>
+      <c r="F3">
+        <v>-1.3423597012437345</v>
+      </c>
+      <c r="G3">
+        <v>-1.3870512456129869</v>
+      </c>
+      <c r="H3">
+        <v>-1.1251598126202871</v>
+      </c>
+      <c r="I3">
+        <v>-0.70340051497784151</v>
+      </c>
+      <c r="J3">
+        <v>-0.95360027500420985</v>
+      </c>
+      <c r="K3">
+        <v>-0.83981308727641746</v>
+      </c>
+      <c r="L3">
+        <v>-1.3856967898786849</v>
+      </c>
+      <c r="M3">
+        <v>-1.3263146727834256</v>
+      </c>
+      <c r="N3">
+        <v>-1.5065656868353479</v>
+      </c>
+      <c r="O3">
+        <v>-1.0335227680958874</v>
+      </c>
+      <c r="P3">
+        <v>-1.3743991462487157</v>
+      </c>
+      <c r="Q3">
+        <v>-0.84034758137709575</v>
+      </c>
+      <c r="R3">
+        <v>-1.6837750787364483</v>
+      </c>
+      <c r="S3">
+        <v>-0.84820977426905386</v>
+      </c>
+      <c r="T3">
+        <v>-1.1566553704966207</v>
+      </c>
+      <c r="U3">
+        <v>-1.5202074875128861</v>
+      </c>
+      <c r="V3">
+        <v>-1.4549593948376394</v>
+      </c>
+      <c r="W3">
+        <v>-1.1994290992474648</v>
+      </c>
+      <c r="X3">
+        <v>-0.74760601749873423</v>
+      </c>
+      <c r="Y3">
+        <v>-0.82072932911255503</v>
+      </c>
+      <c r="Z3">
+        <v>-0.84271261285125365</v>
+      </c>
+      <c r="AA3">
+        <v>-0.93413827701179297</v>
+      </c>
+      <c r="AB3">
+        <v>-0.86812214664157072</v>
+      </c>
+      <c r="AC3">
+        <v>-1.6967084062371305</v>
+      </c>
+      <c r="AD3">
+        <v>-1.3575803333079965</v>
+      </c>
+      <c r="AE3">
+        <v>-1.1000735063324554</v>
+      </c>
+      <c r="AF3">
+        <v>-1.3693100697958498</v>
+      </c>
+      <c r="AG3">
+        <v>-0.74491780028773258</v>
+      </c>
+      <c r="AH3">
+        <v>-0.53915397118528363</v>
+      </c>
+      <c r="AI3">
+        <v>-1.5794113215018037</v>
+      </c>
+      <c r="AJ3">
+        <v>-1.0155991911054618</v>
+      </c>
+      <c r="AK3">
+        <v>-1.414436667910862</v>
+      </c>
+      <c r="AL3">
+        <v>-0.83683500436077418</v>
+      </c>
+      <c r="AM3">
+        <v>-0.98533678267710378</v>
+      </c>
+      <c r="AN3">
+        <v>-1.1531413605562428</v>
+      </c>
+      <c r="AO3">
+        <v>-0.70881854986621895</v>
+      </c>
+      <c r="AP3">
+        <v>-1.2729700221209603</v>
+      </c>
+      <c r="AQ3">
+        <v>-1.3277930009370693</v>
+      </c>
+      <c r="AR3">
+        <v>-1.1840513465483284</v>
+      </c>
+      <c r="AS3">
+        <v>-0.59434953149021119</v>
+      </c>
+      <c r="AT3">
+        <v>-1.8127659574641919</v>
+      </c>
+      <c r="AU3">
+        <v>-0.92567289418611898</v>
+      </c>
+      <c r="AV3">
+        <v>-1.0008328330913765</v>
+      </c>
+      <c r="AW3">
+        <v>-1.269002344347145</v>
+      </c>
+      <c r="AX3">
+        <v>-0.81938846613522409</v>
+      </c>
+      <c r="AY3">
+        <v>-1.1338995476056632</v>
+      </c>
+      <c r="AZ3">
+        <v>-0.82928673643087836</v>
+      </c>
+      <c r="BA3">
+        <v>-1.7504993904829584</v>
+      </c>
+      <c r="BB3">
+        <v>-1.2268584353053082</v>
+      </c>
+      <c r="BC3">
+        <v>-1.5279054309045423</v>
+      </c>
+      <c r="BD3">
+        <v>-0.91304345360160721</v>
+      </c>
+      <c r="BE3">
+        <v>-0.91179762123398211</v>
+      </c>
+      <c r="BF3">
+        <v>-1.618901307528537</v>
+      </c>
+      <c r="BG3">
+        <v>-0.94890568961860133</v>
+      </c>
+      <c r="BH3">
+        <v>-1.4403953325175902</v>
+      </c>
+      <c r="BI3">
+        <v>-0.60240211956467971</v>
+      </c>
+      <c r="BJ3">
+        <v>-1.1273296858777535</v>
+      </c>
+      <c r="BK3">
+        <v>-1.272613887887095</v>
+      </c>
+      <c r="BL3">
+        <v>-1.2027416400958097</v>
+      </c>
+      <c r="BM3">
+        <v>-1.3044290461922752</v>
+      </c>
+      <c r="BN3">
+        <v>-1.532108616854482</v>
+      </c>
+      <c r="BO3">
+        <v>-1.5635615692132743</v>
+      </c>
+      <c r="BP3">
+        <v>-1.5307180780006697</v>
+      </c>
+      <c r="BQ3">
+        <v>-1.5454101571515502</v>
+      </c>
+      <c r="BR3">
+        <v>-1.3638863738773874</v>
+      </c>
+      <c r="BS3">
+        <v>-0.92783030535871391</v>
+      </c>
+      <c r="BT3">
+        <v>-1.2194197195280683</v>
+      </c>
+      <c r="BU3">
+        <v>-1.1020897180053879</v>
+      </c>
+      <c r="BV3">
+        <v>-0.94935055543023494</v>
+      </c>
+      <c r="BW3">
+        <v>-0.73338549587336554</v>
+      </c>
+      <c r="BX3">
+        <v>-1.2716539307434156</v>
+      </c>
+      <c r="BY3">
+        <v>-0.63293598765370873</v>
+      </c>
+      <c r="BZ3">
+        <v>-1.0523671241884107</v>
+      </c>
+      <c r="CA3">
+        <v>-0.9616743648638113</v>
+      </c>
+      <c r="CB3">
+        <v>-0.79182258219263668</v>
+      </c>
+      <c r="CC3">
+        <v>-1.0385936875315451</v>
+      </c>
+      <c r="CD3">
+        <v>-1.5099128702918465</v>
+      </c>
+      <c r="CE3">
+        <v>-1.3105307684956438</v>
+      </c>
+      <c r="CF3">
+        <v>-1.5367794615457187</v>
+      </c>
+      <c r="CG3">
+        <v>-1.8078446539621733</v>
+      </c>
+      <c r="CH3">
+        <v>-1.2846925748286324</v>
+      </c>
+      <c r="CI3">
+        <v>-1.4299708895013716</v>
+      </c>
+      <c r="CJ3">
+        <v>-1.0261086631474783</v>
+      </c>
+      <c r="CK3">
+        <v>-1.010676362503063</v>
+      </c>
+      <c r="CL3">
+        <v>-1.3940061440829614</v>
+      </c>
+      <c r="CM3">
+        <v>-0.62173940467766386</v>
+      </c>
+      <c r="CN3">
+        <v>-0.75756935820853044</v>
+      </c>
+      <c r="CO3">
+        <v>-0.86055939982195895</v>
+      </c>
+      <c r="CP3">
+        <v>-1.6591305687796656</v>
+      </c>
+      <c r="CQ3">
+        <v>-0.78653496165374237</v>
+      </c>
+      <c r="CR3">
+        <v>-0.59553561553933942</v>
+      </c>
+      <c r="CS3">
+        <v>-1.457730578625424</v>
+      </c>
+      <c r="CT3">
+        <v>-1.1551926451257781</v>
+      </c>
+      <c r="CU3">
+        <v>-1.7297098433655504</v>
+      </c>
+      <c r="CV3">
+        <v>-1.4825318709671833</v>
+      </c>
+    </row>
+    <row r="4" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>-1.1002175957225104</v>
+      </c>
+      <c r="B4">
+        <v>-0.89816752116719789</v>
+      </c>
+      <c r="C4">
+        <v>-1.4602936351234252</v>
+      </c>
+      <c r="D4">
+        <v>-0.96735368793904886</v>
+      </c>
+      <c r="E4">
+        <v>-0.59871433275004415</v>
+      </c>
+      <c r="F4">
+        <v>-1.3412594803842377</v>
+      </c>
+      <c r="G4">
+        <v>-1.5271144634465224</v>
+      </c>
+      <c r="H4">
+        <v>-1.1778751452078164</v>
+      </c>
+      <c r="I4">
+        <v>-0.91600855040806872</v>
+      </c>
+      <c r="J4">
+        <v>-1.0469077799378559</v>
+      </c>
+      <c r="K4">
+        <v>-1.1473699259961256</v>
+      </c>
+      <c r="L4">
+        <v>-1.2771491342178207</v>
+      </c>
+      <c r="M4">
+        <v>-1.2772789121222687</v>
+      </c>
+      <c r="N4">
+        <v>-1.3027725464083573</v>
+      </c>
+      <c r="O4">
+        <v>-0.92142367804383485</v>
+      </c>
+      <c r="P4">
+        <v>-1.0346244967930138</v>
+      </c>
+      <c r="Q4">
+        <v>-0.90413495451267867</v>
+      </c>
+      <c r="R4">
+        <v>-1.0429620886434552</v>
+      </c>
+      <c r="S4">
+        <v>-1.3739849045544883</v>
+      </c>
+      <c r="T4">
+        <v>-1.6103651799813468</v>
+      </c>
+      <c r="U4">
+        <v>-1.0757428387519381</v>
+      </c>
+      <c r="V4">
+        <v>-1.5609295355095489</v>
+      </c>
+      <c r="W4">
+        <v>-1.7230586693542673</v>
+      </c>
+      <c r="X4">
+        <v>-1.565609168999867</v>
+      </c>
+      <c r="Y4">
+        <v>-0.80512735904803523</v>
+      </c>
+      <c r="Z4">
+        <v>-0.87053325205488441</v>
+      </c>
+      <c r="AA4">
+        <v>-1.2047573145650077</v>
+      </c>
+      <c r="AB4">
+        <v>-1.3704534932264314</v>
+      </c>
+      <c r="AC4">
+        <v>-1.1778588802175975</v>
+      </c>
+      <c r="AD4">
+        <v>-0.97116552517818866</v>
+      </c>
+      <c r="AE4">
+        <v>-1.0662828173072754</v>
+      </c>
+      <c r="AF4">
+        <v>-0.96673334131528399</v>
+      </c>
+      <c r="AG4">
+        <v>-1.0875575221040152</v>
+      </c>
+      <c r="AH4">
+        <v>-1.2729029313624398</v>
+      </c>
+      <c r="AI4">
+        <v>-1.0679744911580502</v>
+      </c>
+      <c r="AJ4">
+        <v>-0.99476674003864418</v>
+      </c>
+      <c r="AK4">
+        <v>-1.6403334495254096</v>
+      </c>
+      <c r="AL4">
+        <v>-0.76856030330302372</v>
+      </c>
+      <c r="AM4">
+        <v>-1.009642200821782</v>
+      </c>
+      <c r="AN4">
+        <v>-1.0001104114107866</v>
+      </c>
+      <c r="AO4">
+        <v>-1.4485461668929791</v>
+      </c>
+      <c r="AP4">
+        <v>-0.7257088012370656</v>
+      </c>
+      <c r="AQ4">
+        <v>-1.2875252506185206</v>
+      </c>
+      <c r="AR4">
+        <v>-0.68986807142815076</v>
+      </c>
+      <c r="AS4">
+        <v>-1.3900692659928973</v>
+      </c>
+      <c r="AT4">
+        <v>-1.0748279965738661</v>
+      </c>
+      <c r="AU4">
+        <v>-1.5120099490718646</v>
+      </c>
+      <c r="AV4">
+        <v>-0.83161758120664497</v>
+      </c>
+      <c r="AW4">
+        <v>-0.85738399834440648</v>
+      </c>
+      <c r="AX4">
+        <v>-1.4103946273819024</v>
+      </c>
+      <c r="AY4">
+        <v>-1.1667424723476985</v>
+      </c>
+      <c r="AZ4">
+        <v>-1.7054989399115374</v>
+      </c>
+      <c r="BA4">
+        <v>-0.83710491516463192</v>
+      </c>
+      <c r="BB4">
+        <v>-1.4980859172389041</v>
+      </c>
+      <c r="BC4">
+        <v>-0.82517763523749654</v>
+      </c>
+      <c r="BD4">
+        <v>-0.95179910026381509</v>
+      </c>
+      <c r="BE4">
+        <v>-1.1524700450188254</v>
+      </c>
+      <c r="BF4">
+        <v>-0.99372151651759311</v>
+      </c>
+      <c r="BG4">
+        <v>-0.94455277250666336</v>
+      </c>
+      <c r="BH4">
+        <v>-1.2183350741807464</v>
+      </c>
+      <c r="BI4">
+        <v>-1.3697446228852665</v>
+      </c>
+      <c r="BJ4">
+        <v>-0.53496502020736236</v>
+      </c>
+      <c r="BK4">
+        <v>-1.0237134476754366</v>
+      </c>
+      <c r="BL4">
+        <v>-1.4680589520397835</v>
+      </c>
+      <c r="BM4">
+        <v>-1.5867325466557494</v>
+      </c>
+      <c r="BN4">
+        <v>-0.66182371194895107</v>
+      </c>
+      <c r="BO4">
+        <v>-1.1710374867061928</v>
+      </c>
+      <c r="BP4">
+        <v>-0.7912874420317989</v>
+      </c>
+      <c r="BQ4">
+        <v>-1.2347703141606545</v>
+      </c>
+      <c r="BR4">
+        <v>-1.5866599939496473</v>
+      </c>
+      <c r="BS4">
+        <v>-0.81271710625627003</v>
+      </c>
+      <c r="BT4">
+        <v>-1.1238413340011395</v>
+      </c>
+      <c r="BU4">
+        <v>-1.7449663126268684</v>
+      </c>
+      <c r="BV4">
+        <v>-1.1120633164309812</v>
+      </c>
+      <c r="BW4">
+        <v>-1.5638768255198587</v>
+      </c>
+      <c r="BX4">
+        <v>-1.4035929678695331</v>
+      </c>
+      <c r="BY4">
+        <v>-1.4311422876952333</v>
+      </c>
+      <c r="BZ4">
+        <v>-0.56686697614704817</v>
+      </c>
+      <c r="CA4">
+        <v>-0.96081188243157156</v>
+      </c>
+      <c r="CB4">
+        <v>-1.4118401200321904</v>
+      </c>
+      <c r="CC4">
+        <v>-0.95249116424281877</v>
+      </c>
+      <c r="CD4">
+        <v>-1.358481610894011</v>
+      </c>
+      <c r="CE4">
+        <v>-1.166289065107849</v>
+      </c>
+      <c r="CF4">
+        <v>-1.3850229915598387</v>
+      </c>
+      <c r="CG4">
+        <v>-2.0131790188290157</v>
+      </c>
+      <c r="CH4">
+        <v>-1.2238526855476888</v>
+      </c>
+      <c r="CI4">
+        <v>-1.4360379401195467</v>
+      </c>
+      <c r="CJ4">
+        <v>-1.4806965083313675</v>
+      </c>
+      <c r="CK4">
+        <v>-1.1936789463757651</v>
+      </c>
+      <c r="CL4">
+        <v>-0.7163305411706723</v>
+      </c>
+      <c r="CM4">
+        <v>-1.1750900049837494</v>
+      </c>
+      <c r="CN4">
+        <v>-0.75592050529550425</v>
+      </c>
+      <c r="CO4">
+        <v>-0.76821871259085617</v>
+      </c>
+      <c r="CP4">
+        <v>-1.7621895881376564</v>
+      </c>
+      <c r="CQ4">
+        <v>-0.88121548107894832</v>
+      </c>
+      <c r="CR4">
+        <v>-0.98769707372789417</v>
+      </c>
+      <c r="CS4">
+        <v>-1.0488910966740821</v>
+      </c>
+      <c r="CT4">
+        <v>-0.76153357650710063</v>
+      </c>
+      <c r="CU4">
+        <v>-1.3882418567146868</v>
+      </c>
+      <c r="CV4">
+        <v>-0.71616850889662931</v>
+      </c>
+    </row>
+    <row r="5" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>-1.0362369685651567</v>
+      </c>
+      <c r="B5">
+        <v>-1.3131561287194895</v>
+      </c>
+      <c r="C5">
+        <v>-0.81893186431356235</v>
+      </c>
+      <c r="D5">
+        <v>-0.44421459124761492</v>
+      </c>
+      <c r="E5">
+        <v>-1.1419217658754661</v>
+      </c>
+      <c r="F5">
+        <v>-0.69908483792309162</v>
+      </c>
+      <c r="G5">
+        <v>-1.5617319057813532</v>
+      </c>
+      <c r="H5">
+        <v>-1.2329358982923917</v>
+      </c>
+      <c r="I5">
+        <v>-0.84007300477254532</v>
+      </c>
+      <c r="J5">
+        <v>-1.5257409014286014</v>
+      </c>
+      <c r="K5">
+        <v>-1.4000008062824667</v>
+      </c>
+      <c r="L5">
+        <v>-0.96075329787871699</v>
+      </c>
+      <c r="M5">
+        <v>-0.82467187908134876</v>
+      </c>
+      <c r="N5">
+        <v>-0.90308758769080222</v>
+      </c>
+      <c r="O5">
+        <v>-1.1852384685716917</v>
+      </c>
+      <c r="P5">
+        <v>-1.0122365312540778</v>
+      </c>
+      <c r="Q5">
+        <v>-1.4683787894292841</v>
+      </c>
+      <c r="R5">
+        <v>-0.91109651774742551</v>
+      </c>
+      <c r="S5">
+        <v>-0.97759306076549901</v>
+      </c>
+      <c r="T5">
+        <v>-1.4881225952720936</v>
+      </c>
+      <c r="U5">
+        <v>-1.2341896650565145</v>
+      </c>
+      <c r="V5">
+        <v>-1.2088591826218384</v>
+      </c>
+      <c r="W5">
+        <v>-1.4866589513066328</v>
+      </c>
+      <c r="X5">
+        <v>-0.86220377480024513</v>
+      </c>
+      <c r="Y5">
+        <v>-0.99467164858147927</v>
+      </c>
+      <c r="Z5">
+        <v>-1.5560795195693296</v>
+      </c>
+      <c r="AA5">
+        <v>-0.44665089109845352</v>
+      </c>
+      <c r="AB5">
+        <v>-1.3216517811309372</v>
+      </c>
+      <c r="AC5">
+        <v>-1.1603616479438004</v>
+      </c>
+      <c r="AD5">
+        <v>-1.2422216220216167</v>
+      </c>
+      <c r="AE5">
+        <v>-0.81949938916364451</v>
+      </c>
+      <c r="AF5">
+        <v>-1.416636957557645</v>
+      </c>
+      <c r="AG5">
+        <v>-1.2414576339290064</v>
+      </c>
+      <c r="AH5">
+        <v>-1.4256805283045604</v>
+      </c>
+      <c r="AI5">
+        <v>-0.81966650996788859</v>
+      </c>
+      <c r="AJ5">
+        <v>-1.2428744681623214</v>
+      </c>
+      <c r="AK5">
+        <v>-1.5772634811061166</v>
+      </c>
+      <c r="AL5">
+        <v>-1.1150991566461086</v>
+      </c>
+      <c r="AM5">
+        <v>-0.65059012493371471</v>
+      </c>
+      <c r="AN5">
+        <v>-1.1876408042848901</v>
+      </c>
+      <c r="AO5">
+        <v>-0.88649634741376881</v>
+      </c>
+      <c r="AP5">
+        <v>-0.86450967914577126</v>
+      </c>
+      <c r="AQ5">
+        <v>-0.97567646908134242</v>
+      </c>
+      <c r="AR5">
+        <v>-1.2567568870762753</v>
+      </c>
+      <c r="AS5">
+        <v>-0.80835256719653614</v>
+      </c>
+      <c r="AT5">
+        <v>-1.760031185940421</v>
+      </c>
+      <c r="AU5">
+        <v>-1.323338062491392</v>
+      </c>
+      <c r="AV5">
+        <v>-1.0322296486752585</v>
+      </c>
+      <c r="AW5">
+        <v>-1.2182164988437008</v>
+      </c>
+      <c r="AX5">
+        <v>-1.5311071541059493</v>
+      </c>
+      <c r="AY5">
+        <v>-1.4979904756148652</v>
+      </c>
+      <c r="AZ5">
+        <v>-0.93221291507681747</v>
+      </c>
+      <c r="BA5">
+        <v>-0.76348523471907215</v>
+      </c>
+      <c r="BB5">
+        <v>-1.0761331845822772</v>
+      </c>
+      <c r="BC5">
+        <v>-1.140290160671217</v>
+      </c>
+      <c r="BD5">
+        <v>-1.5410636360226946</v>
+      </c>
+      <c r="BE5">
+        <v>-0.86886600010988491</v>
+      </c>
+      <c r="BF5">
+        <v>-1.0790124928371196</v>
+      </c>
+      <c r="BG5">
+        <v>-1.6059523867312098</v>
+      </c>
+      <c r="BH5">
+        <v>-0.66114897938957706</v>
+      </c>
+      <c r="BI5">
+        <v>-1.0927235074007733</v>
+      </c>
+      <c r="BJ5">
+        <v>-1.378142237082737</v>
+      </c>
+      <c r="BK5">
+        <v>-1.7532730603647217</v>
+      </c>
+      <c r="BL5">
+        <v>-0.6292163735973979</v>
+      </c>
+      <c r="BM5">
+        <v>-1.0106868949389338</v>
+      </c>
+      <c r="BN5">
+        <v>-1.3770123174923083</v>
+      </c>
+      <c r="BO5">
+        <v>-0.84724845628280898</v>
+      </c>
+      <c r="BP5">
+        <v>-0.86343999876471855</v>
+      </c>
+      <c r="BQ5">
+        <v>-1.3941638766789766</v>
+      </c>
+      <c r="BR5">
+        <v>-1.4021987593412841</v>
+      </c>
+      <c r="BS5">
+        <v>-0.8460597748585359</v>
+      </c>
+      <c r="BT5">
+        <v>-1.6827098075196967</v>
+      </c>
+      <c r="BU5">
+        <v>-1.5401547447842381</v>
+      </c>
+      <c r="BV5">
+        <v>-0.70775993157221684</v>
+      </c>
+      <c r="BW5">
+        <v>-1.1303848326857562</v>
+      </c>
+      <c r="BX5">
+        <v>-0.51102283666802495</v>
+      </c>
+      <c r="BY5">
+        <v>-1.0113396944102202</v>
+      </c>
+      <c r="BZ5">
+        <v>-0.87325328013199166</v>
+      </c>
+      <c r="CA5">
+        <v>-1.284022218966449</v>
+      </c>
+      <c r="CB5">
+        <v>-1.4981006829075754</v>
+      </c>
+      <c r="CC5">
+        <v>-1.0754627845258329</v>
+      </c>
+      <c r="CD5">
+        <v>-1.1995639682370465</v>
+      </c>
+      <c r="CE5">
+        <v>-1.3484104704152051</v>
+      </c>
+      <c r="CF5">
+        <v>-1.114824920834544</v>
+      </c>
+      <c r="CG5">
+        <v>-1.7404604104660284</v>
+      </c>
+      <c r="CH5">
+        <v>-1.2076977654774721</v>
+      </c>
+      <c r="CI5">
+        <v>-0.98287966562781837</v>
+      </c>
+      <c r="CJ5">
+        <v>-1.6616875876548878</v>
+      </c>
+      <c r="CK5">
+        <v>-1.5405023702518839</v>
+      </c>
+      <c r="CL5">
+        <v>-1.2612907720378543</v>
+      </c>
+      <c r="CM5">
+        <v>-0.82139621283373521</v>
+      </c>
+      <c r="CN5">
+        <v>-1.1789294097101293</v>
+      </c>
+      <c r="CO5">
+        <v>-1.4774388270689922</v>
+      </c>
+      <c r="CP5">
+        <v>-1.6707183458287</v>
+      </c>
+      <c r="CQ5">
+        <v>-1.6528587495660305</v>
+      </c>
+      <c r="CR5">
+        <v>-1.3186391268663373</v>
+      </c>
+      <c r="CS5">
+        <v>-0.86272961238492107</v>
+      </c>
+      <c r="CT5">
+        <v>-0.60282569253369123</v>
+      </c>
+      <c r="CU5">
+        <v>-1.4053130461865835</v>
+      </c>
+      <c r="CV5">
+        <v>-0.97918336597698163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>-0.8821698428199749</v>
+      </c>
+      <c r="B6">
+        <v>-1.6846124180123387</v>
+      </c>
+      <c r="C6">
+        <v>-0.80968435942219386</v>
+      </c>
+      <c r="D6">
+        <v>-0.79725658329415894</v>
+      </c>
+      <c r="E6">
+        <v>-0.82841098101773314</v>
+      </c>
+      <c r="F6">
+        <v>-0.95274216855194283</v>
+      </c>
+      <c r="G6">
+        <v>-1.5614269414159327</v>
+      </c>
+      <c r="H6">
+        <v>-1.4484684946936175</v>
+      </c>
+      <c r="I6">
+        <v>-0.96648460313146589</v>
+      </c>
+      <c r="J6">
+        <v>-0.88694703826995525</v>
+      </c>
+      <c r="K6">
+        <v>-0.98166078873883988</v>
+      </c>
+      <c r="L6">
+        <v>-1.4504999841345232</v>
+      </c>
+      <c r="M6">
+        <v>-1.1241901345022809</v>
+      </c>
+      <c r="N6">
+        <v>-1.6342598577279244</v>
+      </c>
+      <c r="O6">
+        <v>-1.1116211485872438</v>
+      </c>
+      <c r="P6">
+        <v>-1.3308080279416754</v>
+      </c>
+      <c r="Q6">
+        <v>-1.4792318072590049</v>
+      </c>
+      <c r="R6">
+        <v>-1.3868611237788624</v>
+      </c>
+      <c r="S6">
+        <v>-1.3330700190736517</v>
+      </c>
+      <c r="T6">
+        <v>-1.0634741974933311</v>
+      </c>
+      <c r="U6">
+        <v>-1.0108374383287682</v>
+      </c>
+      <c r="V6">
+        <v>-0.88525674821375644</v>
+      </c>
+      <c r="W6">
+        <v>-1.5482833000715031</v>
+      </c>
+      <c r="X6">
+        <v>-1.3894924904794661</v>
+      </c>
+      <c r="Y6">
+        <v>-1.0966199144161468</v>
+      </c>
+      <c r="Z6">
+        <v>-1.0293935735959334</v>
+      </c>
+      <c r="AA6">
+        <v>-1.2201634638881262</v>
+      </c>
+      <c r="AB6">
+        <v>-1.0183382066384326</v>
+      </c>
+      <c r="AC6">
+        <v>-1.6529450845618334</v>
+      </c>
+      <c r="AD6">
+        <v>-1.5304203468857465</v>
+      </c>
+      <c r="AE6">
+        <v>-0.77567697866600183</v>
+      </c>
+      <c r="AF6">
+        <v>-1.2506377937319981</v>
+      </c>
+      <c r="AG6">
+        <v>-0.64611078850394366</v>
+      </c>
+      <c r="AH6">
+        <v>-1.4246092644370101</v>
+      </c>
+      <c r="AI6">
+        <v>-0.89555274229712112</v>
+      </c>
+      <c r="AJ6">
+        <v>-0.87678911501513201</v>
+      </c>
+      <c r="AK6">
+        <v>-1.2023998292709619</v>
+      </c>
+      <c r="AL6">
+        <v>-0.83377791491453745</v>
+      </c>
+      <c r="AM6">
+        <v>-0.67644551764201755</v>
+      </c>
+      <c r="AN6">
+        <v>-0.86594108537931558</v>
+      </c>
+      <c r="AO6">
+        <v>-0.6408419302837286</v>
+      </c>
+      <c r="AP6">
+        <v>-0.96981602134429856</v>
+      </c>
+      <c r="AQ6">
+        <v>-1.2919855811423291</v>
+      </c>
+      <c r="AR6">
+        <v>-1.2306271526452093</v>
+      </c>
+      <c r="AS6">
+        <v>-1.2193148206230684</v>
+      </c>
+      <c r="AT6">
+        <v>-1.1031737169207494</v>
+      </c>
+      <c r="AU6">
+        <v>-1.6443645533212135</v>
+      </c>
+      <c r="AV6">
+        <v>-1.3116588501487891</v>
+      </c>
+      <c r="AW6">
+        <v>-1.4255007706792746</v>
+      </c>
+      <c r="AX6">
+        <v>-1.5770775012119933</v>
+      </c>
+      <c r="AY6">
+        <v>-1.0269310815625521</v>
+      </c>
+      <c r="AZ6">
+        <v>-1.1741381407146911</v>
+      </c>
+      <c r="BA6">
+        <v>-1.043347210885057</v>
+      </c>
+      <c r="BB6">
+        <v>-1.293106772695682</v>
+      </c>
+      <c r="BC6">
+        <v>-1.5328571024789823</v>
+      </c>
+      <c r="BD6">
+        <v>-1.5834208185157401</v>
+      </c>
+      <c r="BE6">
+        <v>-0.80102812414538682</v>
+      </c>
+      <c r="BF6">
+        <v>-0.96271087974527669</v>
+      </c>
+      <c r="BG6">
+        <v>-1.4120230177524207</v>
+      </c>
+      <c r="BH6">
+        <v>-1.0330874491471369</v>
+      </c>
+      <c r="BI6">
+        <v>-1.2210684196724699</v>
+      </c>
+      <c r="BJ6">
+        <v>-1.4027261688578394</v>
+      </c>
+      <c r="BK6">
+        <v>-1.550780205470339</v>
+      </c>
+      <c r="BL6">
+        <v>-0.6564574748219465</v>
+      </c>
+      <c r="BM6">
+        <v>-0.92594319109775569</v>
+      </c>
+      <c r="BN6">
+        <v>-1.2086963037629548</v>
+      </c>
+      <c r="BO6">
+        <v>-0.8840185864257406</v>
+      </c>
+      <c r="BP6">
+        <v>-1.3105186800809816</v>
+      </c>
+      <c r="BQ6">
+        <v>-0.95671154070690834</v>
+      </c>
+      <c r="BR6">
+        <v>-1.6460842058112983</v>
+      </c>
+      <c r="BS6">
+        <v>-1.2141029723260413</v>
+      </c>
+      <c r="BT6">
+        <v>-1.412891834069441</v>
+      </c>
+      <c r="BU6">
+        <v>-0.88216623587108522</v>
+      </c>
+      <c r="BV6">
+        <v>-0.89833856908145737</v>
+      </c>
+      <c r="BW6">
+        <v>-1.0762822020294358</v>
+      </c>
+      <c r="BX6">
+        <v>-1.4985967840075545</v>
+      </c>
+      <c r="BY6">
+        <v>-0.82983602912514587</v>
+      </c>
+      <c r="BZ6">
+        <v>-1.0531990769276589</v>
+      </c>
+      <c r="CA6">
+        <v>-0.77935035974355138</v>
+      </c>
+      <c r="CB6">
+        <v>-1.0244962072870583</v>
+      </c>
+      <c r="CC6">
+        <v>-1.0954319835353676</v>
+      </c>
+      <c r="CD6">
+        <v>-0.8965061522051726</v>
+      </c>
+      <c r="CE6">
+        <v>-1.2332304344390816</v>
+      </c>
+      <c r="CF6">
+        <v>-1.3494844802572541</v>
+      </c>
+      <c r="CG6">
+        <v>-1.4488842662698016</v>
+      </c>
+      <c r="CH6">
+        <v>-1.1047837022443165</v>
+      </c>
+      <c r="CI6">
+        <v>-0.67391900841348518</v>
+      </c>
+      <c r="CJ6">
+        <v>-1.331079146885362</v>
+      </c>
+      <c r="CK6">
+        <v>-0.9789335394836175</v>
+      </c>
+      <c r="CL6">
+        <v>-0.9124736163885776</v>
+      </c>
+      <c r="CM6">
+        <v>-0.96594229172927282</v>
+      </c>
+      <c r="CN6">
+        <v>-1.1606168299939712</v>
+      </c>
+      <c r="CO6">
+        <v>-1.3581473307155065</v>
+      </c>
+      <c r="CP6">
+        <v>-1.259233505003974</v>
+      </c>
+      <c r="CQ6">
+        <v>-1.3154392506674937</v>
+      </c>
+      <c r="CR6">
+        <v>-0.785857734378268</v>
+      </c>
+      <c r="CS6">
+        <v>-1.4366695241285099</v>
+      </c>
+      <c r="CT6">
+        <v>-0.77981995019428074</v>
+      </c>
+      <c r="CU6">
+        <v>-1.3474427148520174</v>
+      </c>
+      <c r="CV6">
+        <v>-1.7773991327608936</v>
+      </c>
+    </row>
+    <row r="7" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>-1.2092871371841285</v>
+      </c>
+      <c r="B7">
+        <v>-1.3393666761496843</v>
+      </c>
+      <c r="C7">
+        <v>-0.97051326530710713</v>
+      </c>
+      <c r="D7">
+        <v>-0.81629474059028362</v>
+      </c>
+      <c r="E7">
+        <v>-1.0366676583764576</v>
+      </c>
+      <c r="F7">
+        <v>-1.072252868693981</v>
+      </c>
+      <c r="G7">
+        <v>-1.3209961687235343</v>
+      </c>
+      <c r="H7">
+        <v>-1.3783427502855408</v>
+      </c>
+      <c r="I7">
+        <v>-1.4945809735068267</v>
+      </c>
+      <c r="J7">
+        <v>-1.2224713246946692</v>
+      </c>
+      <c r="K7">
+        <v>-1.0864730981897661</v>
+      </c>
+      <c r="L7">
+        <v>-1.403136200117433</v>
+      </c>
+      <c r="M7">
+        <v>-1.1066588283400762</v>
+      </c>
+      <c r="N7">
+        <v>-1.2947563962046738</v>
+      </c>
+      <c r="O7">
+        <v>-1.2130243873037194</v>
+      </c>
+      <c r="P7">
+        <v>-1.3863627014786468</v>
+      </c>
+      <c r="Q7">
+        <v>-1.4661042219980422</v>
+      </c>
+      <c r="R7">
+        <v>-0.95949665132198125</v>
+      </c>
+      <c r="S7">
+        <v>-1.3889164700368608</v>
+      </c>
+      <c r="T7">
+        <v>-0.81820503126578903</v>
+      </c>
+      <c r="U7">
+        <v>-1.3109334800629298</v>
+      </c>
+      <c r="V7">
+        <v>-1.1430829768981436</v>
+      </c>
+      <c r="W7">
+        <v>-1.3457036449049451</v>
+      </c>
+      <c r="X7">
+        <v>-1.2101518989174582</v>
+      </c>
+      <c r="Y7">
+        <v>-1.1157440732696164</v>
+      </c>
+      <c r="Z7">
+        <v>-0.77664848432963229</v>
+      </c>
+      <c r="AA7">
+        <v>-0.77493370949489448</v>
+      </c>
+      <c r="AB7">
+        <v>-1.5528611939014394</v>
+      </c>
+      <c r="AC7">
+        <v>-1.0785257008487743</v>
+      </c>
+      <c r="AD7">
+        <v>-1.4636982314630802</v>
+      </c>
+      <c r="AE7">
+        <v>-1.0314097692368736</v>
+      </c>
+      <c r="AF7">
+        <v>-1.3343487815188739</v>
+      </c>
+      <c r="AG7">
+        <v>-1.190576133398356</v>
+      </c>
+      <c r="AH7">
+        <v>-0.59017719200191032</v>
+      </c>
+      <c r="AI7">
+        <v>-1.3489243427132076</v>
+      </c>
+      <c r="AJ7">
+        <v>-1.0922771229328261</v>
+      </c>
+      <c r="AK7">
+        <v>-1.1244000928087441</v>
+      </c>
+      <c r="AL7">
+        <v>-0.58714993959460515</v>
+      </c>
+      <c r="AM7">
+        <v>-0.9422201733849177</v>
+      </c>
+      <c r="AN7">
+        <v>-1.3997634623216513</v>
+      </c>
+      <c r="AO7">
+        <v>-0.59587725210409648</v>
+      </c>
+      <c r="AP7">
+        <v>-1.0091847281413056</v>
+      </c>
+      <c r="AQ7">
+        <v>-1.374803277185942</v>
+      </c>
+      <c r="AR7">
+        <v>-0.81637829965688324</v>
+      </c>
+      <c r="AS7">
+        <v>-0.6608317143291822</v>
+      </c>
+      <c r="AT7">
+        <v>-1.0897351279740328</v>
+      </c>
+      <c r="AU7">
+        <v>-1.2596654521933133</v>
+      </c>
+      <c r="AV7">
+        <v>-1.5113106643797443</v>
+      </c>
+      <c r="AW7">
+        <v>-0.87496143448484709</v>
+      </c>
+      <c r="AX7">
+        <v>-0.82673553461707061</v>
+      </c>
+      <c r="AY7">
+        <v>-1.074145860159512</v>
+      </c>
+      <c r="AZ7">
+        <v>-1.045183800807121</v>
+      </c>
+      <c r="BA7">
+        <v>-0.96480254014352573</v>
+      </c>
+      <c r="BB7">
+        <v>-1.3459336058537159</v>
+      </c>
+      <c r="BC7">
+        <v>-1.3902550942861278</v>
+      </c>
+      <c r="BD7">
+        <v>-1.1853206605766824</v>
+      </c>
+      <c r="BE7">
+        <v>-0.81102255282109015</v>
+      </c>
+      <c r="BF7">
+        <v>-1.7546856297118343</v>
+      </c>
+      <c r="BG7">
+        <v>-0.78503461701887434</v>
+      </c>
+      <c r="BH7">
+        <v>-0.72377804735109053</v>
+      </c>
+      <c r="BI7">
+        <v>-1.2616855503555253</v>
+      </c>
+      <c r="BJ7">
+        <v>-0.79099221764809735</v>
+      </c>
+      <c r="BK7">
+        <v>-0.94141221409257314</v>
+      </c>
+      <c r="BL7">
+        <v>-1.4653476968772983</v>
+      </c>
+      <c r="BM7">
+        <v>-1.1325329240896724</v>
+      </c>
+      <c r="BN7">
+        <v>-1.319114849571674</v>
+      </c>
+      <c r="BO7">
+        <v>-1.1381924549446647</v>
+      </c>
+      <c r="BP7">
+        <v>-1.0208276325405374</v>
+      </c>
+      <c r="BQ7">
+        <v>-1.3565794884503537</v>
+      </c>
+      <c r="BR7">
+        <v>-0.9442133710533499</v>
+      </c>
+      <c r="BS7">
+        <v>-1.2632936534915642</v>
+      </c>
+      <c r="BT7">
+        <v>-1.8173440952513695</v>
+      </c>
+      <c r="BU7">
+        <v>-1.3794694195719175</v>
+      </c>
+      <c r="BV7">
+        <v>-1.1999305013559058</v>
+      </c>
+      <c r="BW7">
+        <v>-1.3380884322611144</v>
+      </c>
+      <c r="BX7">
+        <v>-1.315044857696537</v>
+      </c>
+      <c r="BY7">
+        <v>-0.69389147767086212</v>
+      </c>
+      <c r="BZ7">
+        <v>-1.407071918052079</v>
+      </c>
+      <c r="CA7">
+        <v>-1.0449235158884418</v>
+      </c>
+      <c r="CB7">
+        <v>-1.3380042588826202</v>
+      </c>
+      <c r="CC7">
+        <v>-1.6445963337115086</v>
+      </c>
+      <c r="CD7">
+        <v>-1.6011206487644654</v>
+      </c>
+      <c r="CE7">
+        <v>-1.0144652386266273</v>
+      </c>
+      <c r="CF7">
+        <v>-0.64434285650930312</v>
+      </c>
+      <c r="CG7">
+        <v>-1.8937116007424584</v>
+      </c>
+      <c r="CH7">
+        <v>-0.85735972765331758</v>
+      </c>
+      <c r="CI7">
+        <v>-1.2347983033995737</v>
+      </c>
+      <c r="CJ7">
+        <v>-1.7980541322913024</v>
+      </c>
+      <c r="CK7">
+        <v>-1.4498512230008467</v>
+      </c>
+      <c r="CL7">
+        <v>-1.2527019173097544</v>
+      </c>
+      <c r="CM7">
+        <v>-1.082449717694856</v>
+      </c>
+      <c r="CN7">
+        <v>-0.68410322852383587</v>
+      </c>
+      <c r="CO7">
+        <v>-1.0344210273131547</v>
+      </c>
+      <c r="CP7">
+        <v>-0.96497069463577168</v>
+      </c>
+      <c r="CQ7">
+        <v>-1.331468256776791</v>
+      </c>
+      <c r="CR7">
+        <v>-0.66325882348043663</v>
+      </c>
+      <c r="CS7">
+        <v>-0.6862123727405306</v>
+      </c>
+      <c r="CT7">
+        <v>-1.1594880132286549</v>
+      </c>
+      <c r="CU7">
+        <v>-1.402004437045034</v>
+      </c>
+      <c r="CV7">
+        <v>-1.3545668716376764</v>
+      </c>
+    </row>
+    <row r="8" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>-1.4425792773020907</v>
+      </c>
+      <c r="B8">
+        <v>-1.6391664108896937</v>
+      </c>
+      <c r="C8">
+        <v>-0.95289231310443012</v>
+      </c>
+      <c r="D8">
+        <v>-1.0480166829710702</v>
+      </c>
+      <c r="E8">
+        <v>-1.2293142946887328</v>
+      </c>
+      <c r="F8">
+        <v>-0.87569080144493427</v>
+      </c>
+      <c r="G8">
+        <v>-0.89834654511483447</v>
+      </c>
+      <c r="H8">
+        <v>-0.72600518452565521</v>
+      </c>
+      <c r="I8">
+        <v>-0.8860526824823739</v>
+      </c>
+      <c r="J8">
+        <v>-0.96797565503048444</v>
+      </c>
+      <c r="K8">
+        <v>-0.63393320084075322</v>
+      </c>
+      <c r="L8">
+        <v>-1.2599779559089852</v>
+      </c>
+      <c r="M8">
+        <v>-1.1719066036447379</v>
+      </c>
+      <c r="N8">
+        <v>-1.6819796992447991</v>
+      </c>
+      <c r="O8">
+        <v>-0.77890361698244248</v>
+      </c>
+      <c r="P8">
+        <v>-1.3243054746358276</v>
+      </c>
+      <c r="Q8">
+        <v>-1.019773300284512</v>
+      </c>
+      <c r="R8">
+        <v>-1.1630435079699832</v>
+      </c>
+      <c r="S8">
+        <v>-1.5445096733595851</v>
+      </c>
+      <c r="T8">
+        <v>-1.1553877648347104</v>
+      </c>
+      <c r="U8">
+        <v>-1.0138330035986931</v>
+      </c>
+      <c r="V8">
+        <v>-1.5670822341916848</v>
+      </c>
+      <c r="W8">
+        <v>-1.1531211121406415</v>
+      </c>
+      <c r="X8">
+        <v>-0.93548540348566833</v>
+      </c>
+      <c r="Y8">
+        <v>-0.70985365940814915</v>
+      </c>
+      <c r="Z8">
+        <v>-0.95071370183963344</v>
+      </c>
+      <c r="AA8">
+        <v>-0.56935714938742243</v>
+      </c>
+      <c r="AB8">
+        <v>-1.1889050583426382</v>
+      </c>
+      <c r="AC8">
+        <v>-0.81164660864009719</v>
+      </c>
+      <c r="AD8">
+        <v>-0.73005212461223223</v>
+      </c>
+      <c r="AE8">
+        <v>-1.3938220681388933</v>
+      </c>
+      <c r="AF8">
+        <v>-1.5031263694202475</v>
+      </c>
+      <c r="AG8">
+        <v>-0.80154019741304272</v>
+      </c>
+      <c r="AH8">
+        <v>-1.3540740913066664</v>
+      </c>
+      <c r="AI8">
+        <v>-1.6630435475793275</v>
+      </c>
+      <c r="AJ8">
+        <v>-1.459467843752805</v>
+      </c>
+      <c r="AK8">
+        <v>-1.309741905659269</v>
+      </c>
+      <c r="AL8">
+        <v>-0.7677422016479124</v>
+      </c>
+      <c r="AM8">
+        <v>-1.3722128943901446</v>
+      </c>
+      <c r="AN8">
+        <v>-1.5258456548414894</v>
+      </c>
+      <c r="AO8">
+        <v>-1.5171168892085363</v>
+      </c>
+      <c r="AP8">
+        <v>-1.5071655964989796</v>
+      </c>
+      <c r="AQ8">
+        <v>-1.0696145074334804</v>
+      </c>
+      <c r="AR8">
+        <v>-1.1901052425412759</v>
+      </c>
+      <c r="AS8">
+        <v>-1.2524906116640016</v>
+      </c>
+      <c r="AT8">
+        <v>-1.1790349490769976</v>
+      </c>
+      <c r="AU8">
+        <v>-1.3886986980481324</v>
+      </c>
+      <c r="AV8">
+        <v>-1.5637394072376407</v>
+      </c>
+      <c r="AW8">
+        <v>-0.66337028603925829</v>
+      </c>
+      <c r="AX8">
+        <v>-1.3596330960631866</v>
+      </c>
+      <c r="AY8">
+        <v>-0.75807226650585402</v>
+      </c>
+      <c r="AZ8">
+        <v>-0.82687424459712278</v>
+      </c>
+      <c r="BA8">
+        <v>-1.2402811276632035</v>
+      </c>
+      <c r="BB8">
+        <v>-1.0609858388043123</v>
+      </c>
+      <c r="BC8">
+        <v>-1.6653139148489859</v>
+      </c>
+      <c r="BD8">
+        <v>-1.3189904077917047</v>
+      </c>
+      <c r="BE8">
+        <v>-0.8164134410878251</v>
+      </c>
+      <c r="BF8">
+        <v>-0.98522502833366288</v>
+      </c>
+      <c r="BG8">
+        <v>-1.7176442032488248</v>
+      </c>
+      <c r="BH8">
+        <v>-1.2626703873305538</v>
+      </c>
+      <c r="BI8">
+        <v>-1.3880997292234831</v>
+      </c>
+      <c r="BJ8">
+        <v>-1.2901184115152744</v>
+      </c>
+      <c r="BK8">
+        <v>-1.2039181911354353</v>
+      </c>
+      <c r="BL8">
+        <v>-0.70114164315223559</v>
+      </c>
+      <c r="BM8">
+        <v>-1.0244262696559381</v>
+      </c>
+      <c r="BN8">
+        <v>-1.0287788878594748</v>
+      </c>
+      <c r="BO8">
+        <v>-1.0524207526883564</v>
+      </c>
+      <c r="BP8">
+        <v>-1.5126896669302585</v>
+      </c>
+      <c r="BQ8">
+        <v>-1.4825895214361429</v>
+      </c>
+      <c r="BR8">
+        <v>-1.714619882032778</v>
+      </c>
+      <c r="BS8">
+        <v>-0.83489587369770668</v>
+      </c>
+      <c r="BT8">
+        <v>-1.5088482063161508</v>
+      </c>
+      <c r="BU8">
+        <v>-0.78531150978011355</v>
+      </c>
+      <c r="BV8">
+        <v>-1.1319207132178017</v>
+      </c>
+      <c r="BW8">
+        <v>-0.93279977480163845</v>
+      </c>
+      <c r="BX8">
+        <v>-0.65564796226236821</v>
+      </c>
+      <c r="BY8">
+        <v>-1.2216710883298574</v>
+      </c>
+      <c r="BZ8">
+        <v>-0.72422923495776592</v>
+      </c>
+      <c r="CA8">
+        <v>-1.1623526766452152</v>
+      </c>
+      <c r="CB8">
+        <v>-1.1856263315839184</v>
+      </c>
+      <c r="CC8">
+        <v>-1.715206892591552</v>
+      </c>
+      <c r="CD8">
+        <v>-1.6215880925722921</v>
+      </c>
+      <c r="CE8">
+        <v>-0.83893023492680119</v>
+      </c>
+      <c r="CF8">
+        <v>-1.1164312742509117</v>
+      </c>
+      <c r="CG8">
+        <v>-1.9295371352655235</v>
+      </c>
+      <c r="CH8">
+        <v>-1.0998234657684636</v>
+      </c>
+      <c r="CI8">
+        <v>-0.71208464027005058</v>
+      </c>
+      <c r="CJ8">
+        <v>-1.3193366038414076</v>
+      </c>
+      <c r="CK8">
+        <v>-1.0997427345994515</v>
+      </c>
+      <c r="CL8">
+        <v>-0.7766909026316281</v>
+      </c>
+      <c r="CM8">
+        <v>-0.87440353002729576</v>
+      </c>
+      <c r="CN8">
+        <v>-1.2138278159221152</v>
+      </c>
+      <c r="CO8">
+        <v>-0.75420226903573029</v>
+      </c>
+      <c r="CP8">
+        <v>-0.93475586718355086</v>
+      </c>
+      <c r="CQ8">
+        <v>-0.74838615530807473</v>
+      </c>
+      <c r="CR8">
+        <v>-1.3183777971716182</v>
+      </c>
+      <c r="CS8">
+        <v>-0.96162075840374817</v>
+      </c>
+      <c r="CT8">
+        <v>-1.0787073776013305</v>
+      </c>
+      <c r="CU8">
+        <v>-1.8727902081989509</v>
+      </c>
+      <c r="CV8">
+        <v>-1.4849922411444219</v>
+      </c>
+    </row>
+    <row r="9" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>-0.99990784402437949</v>
+      </c>
+      <c r="B9">
+        <v>-1.2667144329477209</v>
+      </c>
+      <c r="C9">
+        <v>-0.84143237310612551</v>
+      </c>
+      <c r="D9">
+        <v>-1.351570583031894</v>
+      </c>
+      <c r="E9">
+        <v>-1.390855123012962</v>
+      </c>
+      <c r="F9">
+        <v>-1.5320456928983186</v>
+      </c>
+      <c r="G9">
+        <v>-1.5697186854012044</v>
+      </c>
+      <c r="H9">
+        <v>-1.029167074116019</v>
+      </c>
+      <c r="I9">
+        <v>-1.2988112387621702</v>
+      </c>
+      <c r="J9">
+        <v>-1.6643476516543199</v>
+      </c>
+      <c r="K9">
+        <v>-0.94696397826519152</v>
+      </c>
+      <c r="L9">
+        <v>-1.6146622861189939</v>
+      </c>
+      <c r="M9">
+        <v>-1.3940776481624348</v>
+      </c>
+      <c r="N9">
+        <v>-0.68543263308371571</v>
+      </c>
+      <c r="O9">
+        <v>-0.61112937601973993</v>
+      </c>
+      <c r="P9">
+        <v>-1.079855437672558</v>
+      </c>
+      <c r="Q9">
+        <v>-0.73636916944129238</v>
+      </c>
+      <c r="R9">
+        <v>-1.1523712180901362</v>
+      </c>
+      <c r="S9">
+        <v>-0.90058330354483918</v>
+      </c>
+      <c r="T9">
+        <v>-1.7410295856982203</v>
+      </c>
+      <c r="U9">
+        <v>-0.93924808242115998</v>
+      </c>
+      <c r="V9">
+        <v>-1.0090367629788612</v>
+      </c>
+      <c r="W9">
+        <v>-1.8229590209252886</v>
+      </c>
+      <c r="X9">
+        <v>-0.61006607953673864</v>
+      </c>
+      <c r="Y9">
+        <v>-1.2501687009068334</v>
+      </c>
+      <c r="Z9">
+        <v>-1.0265090364242924</v>
+      </c>
+      <c r="AA9">
+        <v>-0.70117638166719465</v>
+      </c>
+      <c r="AB9">
+        <v>-1.0974561694623868</v>
+      </c>
+      <c r="AC9">
+        <v>-1.1506516823396633</v>
+      </c>
+      <c r="AD9">
+        <v>-1.3480642614408338</v>
+      </c>
+      <c r="AE9">
+        <v>-1.1663433383637565</v>
+      </c>
+      <c r="AF9">
+        <v>-0.6513334954375708</v>
+      </c>
+      <c r="AG9">
+        <v>-1.0408374201350088</v>
+      </c>
+      <c r="AH9">
+        <v>-0.87299179352870471</v>
+      </c>
+      <c r="AI9">
+        <v>-1.0291479084757724</v>
+      </c>
+      <c r="AJ9">
+        <v>-1.3600355024344184</v>
+      </c>
+      <c r="AK9">
+        <v>-1.3584756643067433</v>
+      </c>
+      <c r="AL9">
+        <v>-0.95460415000942966</v>
+      </c>
+      <c r="AM9">
+        <v>-1.0233183657570444</v>
+      </c>
+      <c r="AN9">
+        <v>-0.84591561229205015</v>
+      </c>
+      <c r="AO9">
+        <v>-1.449248354503307</v>
+      </c>
+      <c r="AP9">
+        <v>-1.4009847982960844</v>
+      </c>
+      <c r="AQ9">
+        <v>-0.88368028518831532</v>
+      </c>
+      <c r="AR9">
+        <v>-1.3840595346739208</v>
+      </c>
+      <c r="AS9">
+        <v>-1.3788819217901922</v>
+      </c>
+      <c r="AT9">
+        <v>-1.7105757672043373</v>
+      </c>
+      <c r="AU9">
+        <v>-1.5803282719916647</v>
+      </c>
+      <c r="AV9">
+        <v>-0.93159678806389101</v>
+      </c>
+      <c r="AW9">
+        <v>-0.84929712304764193</v>
+      </c>
+      <c r="AX9">
+        <v>-0.86610629627598446</v>
+      </c>
+      <c r="AY9">
+        <v>-1.6568290788454236</v>
+      </c>
+      <c r="AZ9">
+        <v>-1.0339874961819524</v>
+      </c>
+      <c r="BA9">
+        <v>-1.6866467137222101</v>
+      </c>
+      <c r="BB9">
+        <v>-0.73556714035527604</v>
+      </c>
+      <c r="BC9">
+        <v>-0.71404457607869931</v>
+      </c>
+      <c r="BD9">
+        <v>-1.3836911756632446</v>
+      </c>
+      <c r="BE9">
+        <v>-1.1545541996799682</v>
+      </c>
+      <c r="BF9">
+        <v>-1.6138142432576372</v>
+      </c>
+      <c r="BG9">
+        <v>-0.73338938200861625</v>
+      </c>
+      <c r="BH9">
+        <v>-1.3069308976487983</v>
+      </c>
+      <c r="BI9">
+        <v>-0.55794016019451509</v>
+      </c>
+      <c r="BJ9">
+        <v>-0.93297419183285968</v>
+      </c>
+      <c r="BK9">
+        <v>-1.2208183796841074</v>
+      </c>
+      <c r="BL9">
+        <v>-1.0138993048516063</v>
+      </c>
+      <c r="BM9">
+        <v>-1.1346230326950946</v>
+      </c>
+      <c r="BN9">
+        <v>-0.80497662548573601</v>
+      </c>
+      <c r="BO9">
+        <v>-1.4373314539272517</v>
+      </c>
+      <c r="BP9">
+        <v>-1.4327269258449544</v>
+      </c>
+      <c r="BQ9">
+        <v>-1.190470924377766</v>
+      </c>
+      <c r="BR9">
+        <v>-1.4195404939335421</v>
+      </c>
+      <c r="BS9">
+        <v>-1.1916488861797836</v>
+      </c>
+      <c r="BT9">
+        <v>-1.5405456164557099</v>
+      </c>
+      <c r="BU9">
+        <v>-1.4218582310915717</v>
+      </c>
+      <c r="BV9">
+        <v>-1.1388373237751943</v>
+      </c>
+      <c r="BW9">
+        <v>-1.0662533374244396</v>
+      </c>
+      <c r="BX9">
+        <v>-0.58237859857512408</v>
+      </c>
+      <c r="BY9">
+        <v>-0.93693285096098788</v>
+      </c>
+      <c r="BZ9">
+        <v>-1.5109469260577655</v>
+      </c>
+      <c r="CA9">
+        <v>-0.80809338877024084</v>
+      </c>
+      <c r="CB9">
+        <v>-1.2592674709739415</v>
+      </c>
+      <c r="CC9">
+        <v>-1.5184283910021483</v>
+      </c>
+      <c r="CD9">
+        <v>-0.67094112956137819</v>
+      </c>
+      <c r="CE9">
+        <v>-0.71550155627883572</v>
+      </c>
+      <c r="CF9">
+        <v>-1.2377394938454478</v>
+      </c>
+      <c r="CG9">
+        <v>-1.8084622051032355</v>
+      </c>
+      <c r="CH9">
+        <v>-0.74802798676991622</v>
+      </c>
+      <c r="CI9">
+        <v>-1.0221086120754466</v>
+      </c>
+      <c r="CJ9">
+        <v>-1.9569288637041085</v>
+      </c>
+      <c r="CK9">
+        <v>-1.2135222844363258</v>
+      </c>
+      <c r="CL9">
+        <v>-0.86204952460413975</v>
+      </c>
+      <c r="CM9">
+        <v>-0.77577466990014965</v>
+      </c>
+      <c r="CN9">
+        <v>-1.2788023883270803</v>
+      </c>
+      <c r="CO9">
+        <v>-1.070770536994829</v>
+      </c>
+      <c r="CP9">
+        <v>-0.96239047070173656</v>
+      </c>
+      <c r="CQ9">
+        <v>-1.1015465177104609</v>
+      </c>
+      <c r="CR9">
+        <v>-1.2281388360080456</v>
+      </c>
+      <c r="CS9">
+        <v>-0.95126720568951484</v>
+      </c>
+      <c r="CT9">
+        <v>-1.1031577058419193</v>
+      </c>
+      <c r="CU9">
+        <v>-1.4439411318778033</v>
+      </c>
+      <c r="CV9">
+        <v>-1.6699961428836236</v>
+      </c>
+    </row>
+    <row r="10" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>-0.82051197149038924</v>
+      </c>
+      <c r="B10">
+        <v>-1.3084779029381461</v>
+      </c>
+      <c r="C10">
+        <v>-0.70951084189577451</v>
+      </c>
+      <c r="D10">
+        <v>-1.0494332030741718</v>
+      </c>
+      <c r="E10">
+        <v>-0.58977169152186493</v>
+      </c>
+      <c r="F10">
+        <v>-1.0628761171629224</v>
+      </c>
+      <c r="G10">
+        <v>-1.3105977176549721</v>
+      </c>
+      <c r="H10">
+        <v>-1.2620075435026024</v>
+      </c>
+      <c r="I10">
+        <v>-1.1329464855389777</v>
+      </c>
+      <c r="J10">
+        <v>-1.0275599945582594</v>
+      </c>
+      <c r="K10">
+        <v>-1.3505640639507372</v>
+      </c>
+      <c r="L10">
+        <v>-1.4281927294387569</v>
+      </c>
+      <c r="M10">
+        <v>-1.4238888116094328</v>
+      </c>
+      <c r="N10">
+        <v>-1.3980064272535577</v>
+      </c>
+      <c r="O10">
+        <v>-0.68540062513530775</v>
+      </c>
+      <c r="P10">
+        <v>-1.3456564001303961</v>
+      </c>
+      <c r="Q10">
+        <v>-1.124377387772201</v>
+      </c>
+      <c r="R10">
+        <v>-0.84152728717592262</v>
+      </c>
+      <c r="S10">
+        <v>-1.3404649515009812</v>
+      </c>
+      <c r="T10">
+        <v>-1.0802149025104593</v>
+      </c>
+      <c r="U10">
+        <v>-0.92686626474552203</v>
+      </c>
+      <c r="V10">
+        <v>-0.69364974948092617</v>
+      </c>
+      <c r="W10">
+        <v>-1.6386341440305705</v>
+      </c>
+      <c r="X10">
+        <v>-0.61713492447882778</v>
+      </c>
+      <c r="Y10">
+        <v>-0.91177007984490643</v>
+      </c>
+      <c r="Z10">
+        <v>-0.71370647469612669</v>
+      </c>
+      <c r="AA10">
+        <v>-0.93249309805057301</v>
+      </c>
+      <c r="AB10">
+        <v>-1.1669016086009194</v>
+      </c>
+      <c r="AC10">
+        <v>-1.5204181624434103</v>
+      </c>
+      <c r="AD10">
+        <v>-0.90308188493778263</v>
+      </c>
+      <c r="AE10">
+        <v>-0.80934180604335915</v>
+      </c>
+      <c r="AF10">
+        <v>-0.91062916432536867</v>
+      </c>
+      <c r="AG10">
+        <v>-1.4956723093898281</v>
+      </c>
+      <c r="AH10">
+        <v>-1.0065552801560746</v>
+      </c>
+      <c r="AI10">
+        <v>-1.493956590669461</v>
+      </c>
+      <c r="AJ10">
+        <v>-1.358384748385858</v>
+      </c>
+      <c r="AK10">
+        <v>-1.6545856854738721</v>
+      </c>
+      <c r="AL10">
+        <v>-0.64808354149053982</v>
+      </c>
+      <c r="AM10">
+        <v>-1.2891579073284143</v>
+      </c>
+      <c r="AN10">
+        <v>-0.88692062959114348</v>
+      </c>
+      <c r="AO10">
+        <v>-1.193483399271787</v>
+      </c>
+      <c r="AP10">
+        <v>-1.5099235306324217</v>
+      </c>
+      <c r="AQ10">
+        <v>-0.7026758160204809</v>
+      </c>
+      <c r="AR10">
+        <v>-1.2237637440577958</v>
+      </c>
+      <c r="AS10">
+        <v>-1.2721970697352367</v>
+      </c>
+      <c r="AT10">
+        <v>-1.9060378618480516</v>
+      </c>
+      <c r="AU10">
+        <v>-1.4228376261675471</v>
+      </c>
+      <c r="AV10">
+        <v>-1.3898472918349767</v>
+      </c>
+      <c r="AW10">
+        <v>-1.3363583663995759</v>
+      </c>
+      <c r="AX10">
+        <v>-1.3252156845476371</v>
+      </c>
+      <c r="AY10">
+        <v>-1.4109757940069869</v>
+      </c>
+      <c r="AZ10">
+        <v>-1.5937244399045258</v>
+      </c>
+      <c r="BA10">
+        <v>-1.4073916996052596</v>
+      </c>
+      <c r="BB10">
+        <v>-1.4121102604834213</v>
+      </c>
+      <c r="BC10">
+        <v>-1.6306000340859312</v>
+      </c>
+      <c r="BD10">
+        <v>-1.6808588424336999</v>
+      </c>
+      <c r="BE10">
+        <v>-1.5083243548392071</v>
+      </c>
+      <c r="BF10">
+        <v>-1.0733824650925146</v>
+      </c>
+      <c r="BG10">
+        <v>-1.017143126259721</v>
+      </c>
+      <c r="BH10">
+        <v>-0.63330907130382563</v>
+      </c>
+      <c r="BI10">
+        <v>-0.83412467095563092</v>
+      </c>
+      <c r="BJ10">
+        <v>-0.98261713689875241</v>
+      </c>
+      <c r="BK10">
+        <v>-1.1813681661519875</v>
+      </c>
+      <c r="BL10">
+        <v>-0.70552783889938708</v>
+      </c>
+      <c r="BM10">
+        <v>-0.93197409602897607</v>
+      </c>
+      <c r="BN10">
+        <v>-0.63237125687956175</v>
+      </c>
+      <c r="BO10">
+        <v>-1.5516520902668058</v>
+      </c>
+      <c r="BP10">
+        <v>-0.61813340037065578</v>
+      </c>
+      <c r="BQ10">
+        <v>-0.970017188198118</v>
+      </c>
+      <c r="BR10">
+        <v>-1.3779993252787377</v>
+      </c>
+      <c r="BS10">
+        <v>-1.4564104706982715</v>
+      </c>
+      <c r="BT10">
+        <v>-1.4313785191587569</v>
+      </c>
+      <c r="BU10">
+        <v>-1.265285155513844</v>
+      </c>
+      <c r="BV10">
+        <v>-1.5194890180648106</v>
+      </c>
+      <c r="BW10">
+        <v>-1.3072756569083746</v>
+      </c>
+      <c r="BX10">
+        <v>-0.52406073463146674</v>
+      </c>
+      <c r="BY10">
+        <v>-1.0617587162660245</v>
+      </c>
+      <c r="BZ10">
+        <v>-1.2021064182687211</v>
+      </c>
+      <c r="CA10">
+        <v>-1.5225869645048973</v>
+      </c>
+      <c r="CB10">
+        <v>-1.2540707650343117</v>
+      </c>
+      <c r="CC10">
+        <v>-1.5753348668889786</v>
+      </c>
+      <c r="CD10">
+        <v>-1.4345461926009604</v>
+      </c>
+      <c r="CE10">
+        <v>-0.93383707675962224</v>
+      </c>
+      <c r="CF10">
+        <v>-0.8172129827088721</v>
+      </c>
+      <c r="CG10">
+        <v>-1.1884575236524701</v>
+      </c>
+      <c r="CH10">
+        <v>-1.317037179922727</v>
+      </c>
+      <c r="CI10">
+        <v>-0.67551144587243683</v>
+      </c>
+      <c r="CJ10">
+        <v>-1.5780798956026314</v>
+      </c>
+      <c r="CK10">
+        <v>-1.3952252493121398</v>
+      </c>
+      <c r="CL10">
+        <v>-0.74133871197435741</v>
+      </c>
+      <c r="CM10">
+        <v>-0.61256474386026927</v>
+      </c>
+      <c r="CN10">
+        <v>-1.1524742307001241</v>
+      </c>
+      <c r="CO10">
+        <v>-0.58934018382331232</v>
+      </c>
+      <c r="CP10">
+        <v>-1.0162584747919177</v>
+      </c>
+      <c r="CQ10">
+        <v>-1.319681869429806</v>
+      </c>
+      <c r="CR10">
+        <v>-1.2228686866167053</v>
+      </c>
+      <c r="CS10">
+        <v>-1.0064318763582976</v>
+      </c>
+      <c r="CT10">
+        <v>-1.379801815020697</v>
+      </c>
+      <c r="CU10">
+        <v>-1.4574523706906064</v>
+      </c>
+      <c r="CV10">
+        <v>-1.3595732489602126</v>
       </c>
     </row>
   </sheetData>

--- a/TestMNIST/MatlabCodes/weight_3.xlsx
+++ b/TestMNIST/MatlabCodes/weight_3.xlsx
@@ -404,17 +404,17 @@
   <dimension ref="A1:CV10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:CV10"/>
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>-1.4726369688599368</v>
+        <v>-156.73195461238114</v>
       </c>
       <c r="B1">
-        <v>-0.96473439909565128</v>
+        <v>-1.133965803507774</v>
       </c>
       <c r="C1">
         <v>-1.443283068855745</v>
@@ -713,10 +713,10 @@
     </row>
     <row r="2" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>-1.0570319867899518</v>
+        <v>-1.133965803507774</v>
       </c>
       <c r="B2">
-        <v>-0.82552669234356402</v>
+        <v>0.99988621939950306</v>
       </c>
       <c r="C2">
         <v>-1.1918624586454813</v>
